--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.2314197007733</v>
+        <v>402.0475577868185</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.4689530997369</v>
+        <v>550.099205650355</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.4768284530437</v>
+        <v>497.5985095321685</v>
       </c>
       <c r="AD2" t="n">
-        <v>329231.4197007733</v>
+        <v>402047.5577868185</v>
       </c>
       <c r="AE2" t="n">
-        <v>450468.9530997369</v>
+        <v>550099.205650355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410574035680953e-06</v>
+        <v>2.384645394643647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>407476.8284530437</v>
+        <v>497598.5095321685</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.6626471846384</v>
+        <v>306.9789602115342</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.7582276320745</v>
+        <v>420.0221563173329</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.8093722230922</v>
+        <v>379.9358312232047</v>
       </c>
       <c r="AD3" t="n">
-        <v>244662.6471846385</v>
+        <v>306978.9602115342</v>
       </c>
       <c r="AE3" t="n">
-        <v>334758.2276320744</v>
+        <v>420022.1563173329</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.777642596792924e-06</v>
+        <v>3.005193009750974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.39756944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>302809.3722230922</v>
+        <v>379935.8312232047</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.8960694936199</v>
+        <v>282.297633866536</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.8715034109458</v>
+        <v>386.252076748836</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.1567494013012</v>
+        <v>349.3887206521209</v>
       </c>
       <c r="AD4" t="n">
-        <v>219896.0694936199</v>
+        <v>282297.633866536</v>
       </c>
       <c r="AE4" t="n">
-        <v>300871.5034109458</v>
+        <v>386252.076748836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.917178134013283e-06</v>
+        <v>3.241084758645264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>272156.7494013011</v>
+        <v>349388.7206521209</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.9160344275211</v>
+        <v>264.9032041044072</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.3211114961001</v>
+        <v>362.45225056021</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.517833486746</v>
+        <v>327.8603164716714</v>
       </c>
       <c r="AD5" t="n">
-        <v>212916.0344275211</v>
+        <v>264903.2041044072</v>
       </c>
       <c r="AE5" t="n">
-        <v>291321.1114961001</v>
+        <v>362452.25056021</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.986222315863036e-06</v>
+        <v>3.357807373772281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.19965277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>263517.8334867461</v>
+        <v>327860.3164716714</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>197.4187319743352</v>
+        <v>259.7349554926793</v>
       </c>
       <c r="AB6" t="n">
-        <v>270.1170185869302</v>
+        <v>355.3808248026069</v>
       </c>
       <c r="AC6" t="n">
-        <v>244.3374294446893</v>
+        <v>321.4637776635657</v>
       </c>
       <c r="AD6" t="n">
-        <v>197418.7319743352</v>
+        <v>259734.9554926793</v>
       </c>
       <c r="AE6" t="n">
-        <v>270117.0185869302</v>
+        <v>355380.8248026069</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.035589606130861e-06</v>
+        <v>3.441265227387441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.956597222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>244337.4294446893</v>
+        <v>321463.7776635657</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>193.5263906303394</v>
+        <v>245.5988116532429</v>
       </c>
       <c r="AB7" t="n">
-        <v>264.7913454420971</v>
+        <v>336.0391291586799</v>
       </c>
       <c r="AC7" t="n">
-        <v>239.5200310701681</v>
+        <v>303.9680263057555</v>
       </c>
       <c r="AD7" t="n">
-        <v>193526.3906303394</v>
+        <v>245598.8116532429</v>
       </c>
       <c r="AE7" t="n">
-        <v>264791.3454420971</v>
+        <v>336039.1291586799</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.067800887724052e-06</v>
+        <v>3.495719997122155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.800347222222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>239520.0310701681</v>
+        <v>303968.0263057555</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>190.3581997474518</v>
+        <v>242.4306207703552</v>
       </c>
       <c r="AB8" t="n">
-        <v>260.4564869054151</v>
+        <v>331.704270621998</v>
       </c>
       <c r="AC8" t="n">
-        <v>235.5988853482135</v>
+        <v>300.0468805838009</v>
       </c>
       <c r="AD8" t="n">
-        <v>190358.1997474518</v>
+        <v>242430.6207703552</v>
       </c>
       <c r="AE8" t="n">
-        <v>260456.4869054151</v>
+        <v>331704.270621998</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.089718564112462e-06</v>
+        <v>3.532772916528601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>235598.8853482135</v>
+        <v>300046.880583801</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.8716760073794</v>
+        <v>239.9440970302829</v>
       </c>
       <c r="AB9" t="n">
-        <v>257.0543154265645</v>
+        <v>328.3020991431474</v>
       </c>
       <c r="AC9" t="n">
-        <v>232.5214123403256</v>
+        <v>296.9694075759131</v>
       </c>
       <c r="AD9" t="n">
-        <v>187871.6760073794</v>
+        <v>239944.0970302829</v>
       </c>
       <c r="AE9" t="n">
-        <v>257054.3154265645</v>
+        <v>328302.0991431474</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.10236966166573e-06</v>
+        <v>3.554160224641801e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>232521.4123403257</v>
+        <v>296969.4075759131</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>185.2051448872582</v>
+        <v>237.2775659101617</v>
       </c>
       <c r="AB10" t="n">
-        <v>253.405849908966</v>
+        <v>324.6536336255489</v>
       </c>
       <c r="AC10" t="n">
-        <v>229.2211512510721</v>
+        <v>293.6691464866595</v>
       </c>
       <c r="AD10" t="n">
-        <v>185205.1448872582</v>
+        <v>237277.5659101616</v>
       </c>
       <c r="AE10" t="n">
-        <v>253405.849908966</v>
+        <v>324653.6336255489</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.110329116030425e-06</v>
+        <v>3.567616077163205e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>229221.1512510721</v>
+        <v>293669.1464866595</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>183.2925073054191</v>
+        <v>235.3649283283225</v>
       </c>
       <c r="AB11" t="n">
-        <v>250.7888947898801</v>
+        <v>322.036678506463</v>
       </c>
       <c r="AC11" t="n">
-        <v>226.8539546556314</v>
+        <v>291.3019498912188</v>
       </c>
       <c r="AD11" t="n">
-        <v>183292.5073054191</v>
+        <v>235364.9283283225</v>
       </c>
       <c r="AE11" t="n">
-        <v>250788.8947898801</v>
+        <v>322036.678506463</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.121533040062839e-06</v>
+        <v>3.586556866636149e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.548611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>226853.9546556314</v>
+        <v>291301.9498912188</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>183.0525397504187</v>
+        <v>235.1249607733221</v>
       </c>
       <c r="AB12" t="n">
-        <v>250.4605605945074</v>
+        <v>321.7083443110902</v>
       </c>
       <c r="AC12" t="n">
-        <v>226.5569562150449</v>
+        <v>291.0049514506323</v>
       </c>
       <c r="AD12" t="n">
-        <v>183052.5397504187</v>
+        <v>235124.9607733221</v>
       </c>
       <c r="AE12" t="n">
-        <v>250460.5605945074</v>
+        <v>321708.3443110902</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.120716087268808e-06</v>
+        <v>3.585175767403746e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>226556.9562150449</v>
+        <v>291004.9514506324</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.0626921915002</v>
+        <v>334.6113262439495</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.3022250802019</v>
+        <v>457.8299785768362</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.8200478094044</v>
+        <v>414.1353279898728</v>
       </c>
       <c r="AD2" t="n">
-        <v>264062.6921915002</v>
+        <v>334611.3262439495</v>
       </c>
       <c r="AE2" t="n">
-        <v>361302.2250802019</v>
+        <v>457829.9785768362</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628365084252455e-06</v>
+        <v>2.819988009807854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.87326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>326820.0478094044</v>
+        <v>414135.3279898728</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.5372821714275</v>
+        <v>268.9953483800192</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.3299094824001</v>
+        <v>368.0513028907663</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.0984233845269</v>
+        <v>332.9250031061188</v>
       </c>
       <c r="AD3" t="n">
-        <v>208537.2821714275</v>
+        <v>268995.3483800192</v>
       </c>
       <c r="AE3" t="n">
-        <v>285329.9094824</v>
+        <v>368051.3028907663</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9587128565089e-06</v>
+        <v>3.392081311143637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>258098.4233845269</v>
+        <v>332925.0031061188</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.7756529930225</v>
+        <v>248.1432408663019</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.6053736709419</v>
+        <v>339.52052946028</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.7791766048938</v>
+        <v>307.117166648748</v>
       </c>
       <c r="AD4" t="n">
-        <v>197775.6529930225</v>
+        <v>248143.2408663019</v>
       </c>
       <c r="AE4" t="n">
-        <v>270605.3736709419</v>
+        <v>339520.52946028</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.084346908043895e-06</v>
+        <v>3.609653231825611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>244779.1766048938</v>
+        <v>307117.166648748</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.5874389841095</v>
+        <v>233.0402782034095</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.8241892072458</v>
+        <v>318.8559896492331</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.9813192198306</v>
+        <v>288.424821514397</v>
       </c>
       <c r="AD5" t="n">
-        <v>182587.4389841095</v>
+        <v>233040.2782034095</v>
       </c>
       <c r="AE5" t="n">
-        <v>249824.1892072458</v>
+        <v>318855.9896492331</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.136334244764028e-06</v>
+        <v>3.699684434060532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.809027777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>225981.3192198306</v>
+        <v>288424.821514397</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.7329454500129</v>
+        <v>228.1857846693129</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.1820569887584</v>
+        <v>312.2138574307457</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.9731027779824</v>
+        <v>282.4166050725489</v>
       </c>
       <c r="AD6" t="n">
-        <v>177732.9454500129</v>
+        <v>228185.7846693129</v>
       </c>
       <c r="AE6" t="n">
-        <v>243182.0569887584</v>
+        <v>312213.8574307457</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.182188379660233e-06</v>
+        <v>3.779094212529696e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>219973.1027779824</v>
+        <v>282416.6050725488</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.6443103820991</v>
+        <v>223.9265574008069</v>
       </c>
       <c r="AB7" t="n">
-        <v>237.5878061109927</v>
+        <v>306.3861947781332</v>
       </c>
       <c r="AC7" t="n">
-        <v>214.9127593524085</v>
+        <v>277.1451263643239</v>
       </c>
       <c r="AD7" t="n">
-        <v>173644.3103820991</v>
+        <v>223926.5574008069</v>
       </c>
       <c r="AE7" t="n">
-        <v>237587.8061109927</v>
+        <v>306386.1947781332</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.21522074223949e-06</v>
+        <v>3.836299361000375e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.461805555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>214912.7593524085</v>
+        <v>277145.1263643239</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>170.1680341236753</v>
+        <v>220.4502811423831</v>
       </c>
       <c r="AB8" t="n">
-        <v>232.8314115717349</v>
+        <v>301.6298002388754</v>
       </c>
       <c r="AC8" t="n">
-        <v>210.6103084323343</v>
+        <v>272.8426754442497</v>
       </c>
       <c r="AD8" t="n">
-        <v>170168.0341236753</v>
+        <v>220450.2811423831</v>
       </c>
       <c r="AE8" t="n">
-        <v>232831.4115717349</v>
+        <v>301629.8002388754</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.23550377189342e-06</v>
+        <v>3.871425329359564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>210610.3084323343</v>
+        <v>272842.6754442497</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>170.2366006875569</v>
+        <v>220.5188477062648</v>
       </c>
       <c r="AB9" t="n">
-        <v>232.9252273693811</v>
+        <v>301.7236160365216</v>
       </c>
       <c r="AC9" t="n">
-        <v>210.6951705819244</v>
+        <v>272.9275375938398</v>
       </c>
       <c r="AD9" t="n">
-        <v>170236.6006875569</v>
+        <v>220518.8477062648</v>
       </c>
       <c r="AE9" t="n">
-        <v>232925.2273693811</v>
+        <v>301723.6160365216</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.234393034555228e-06</v>
+        <v>3.869501764425608e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.383680555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>210695.1705819244</v>
+        <v>272927.5375938398</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4723807222493</v>
+        <v>207.9639574398049</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.3018790796424</v>
+        <v>284.5454612912924</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.0856997429921</v>
+        <v>257.3888418277983</v>
       </c>
       <c r="AD2" t="n">
-        <v>162472.3807222493</v>
+        <v>207963.9574398049</v>
       </c>
       <c r="AE2" t="n">
-        <v>222301.8790796424</v>
+        <v>284545.4612912924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.301524076262312e-06</v>
+        <v>4.354978816608793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16493055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>201085.6997429921</v>
+        <v>257388.8418277983</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.831012968096</v>
+        <v>185.2372488310801</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.3229608517767</v>
+        <v>253.4497759412291</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.0633659915992</v>
+        <v>229.2608850444666</v>
       </c>
       <c r="AD3" t="n">
-        <v>139831.012968096</v>
+        <v>185237.24883108</v>
       </c>
       <c r="AE3" t="n">
-        <v>191322.9608517766</v>
+        <v>253449.7759412291</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529873934564599e-06</v>
+        <v>4.787065887058687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>173063.3659915992</v>
+        <v>229260.8850444666</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.4384838057792</v>
+        <v>175.9000357651913</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.7858851347307</v>
+        <v>240.6741890957184</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.5775480271973</v>
+        <v>217.7045822768387</v>
       </c>
       <c r="AD4" t="n">
-        <v>139438.4838057793</v>
+        <v>175900.0357651913</v>
       </c>
       <c r="AE4" t="n">
-        <v>190785.8851347307</v>
+        <v>240674.1890957184</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.540139574212171e-06</v>
+        <v>4.80649068633201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.210069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>172577.5480271973</v>
+        <v>217704.5822768387</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.4260464319274</v>
+        <v>245.3204902511898</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.8128294985277</v>
+        <v>335.6583175377174</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.2075348938421</v>
+        <v>303.6235588114251</v>
       </c>
       <c r="AD2" t="n">
-        <v>188426.0464319274</v>
+        <v>245320.4902511898</v>
       </c>
       <c r="AE2" t="n">
-        <v>257812.8294985277</v>
+        <v>335658.3175377174</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.037625104197994e-06</v>
+        <v>3.712110419064867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98090277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>233207.5348938421</v>
+        <v>303623.5588114251</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.4871102785087</v>
+        <v>207.9702641733704</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.5855444745673</v>
+        <v>284.5540904423902</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.6286083002249</v>
+        <v>257.3966474248264</v>
       </c>
       <c r="AD3" t="n">
-        <v>160487.1102785087</v>
+        <v>207970.2641733704</v>
       </c>
       <c r="AE3" t="n">
-        <v>219585.5444745673</v>
+        <v>284554.0904423902</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.305416213717449e-06</v>
+        <v>4.199967663133999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.704861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>198628.6083002249</v>
+        <v>257396.6474248264</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.6411171176935</v>
+        <v>200.9536788119629</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.2185546080421</v>
+        <v>274.9536888010181</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.155590799905</v>
+        <v>248.7124946418554</v>
       </c>
       <c r="AD4" t="n">
-        <v>153641.1171176934</v>
+        <v>200953.6788119629</v>
       </c>
       <c r="AE4" t="n">
-        <v>210218.5546080421</v>
+        <v>274953.6888010181</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390272151010552e-06</v>
+        <v>4.354556752312512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.357638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>190155.590799905</v>
+        <v>248712.4946418554</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.6166983822196</v>
+        <v>197.9292600764891</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.0804114662311</v>
+        <v>270.815545659207</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.4123862316267</v>
+        <v>244.9692900735772</v>
       </c>
       <c r="AD5" t="n">
-        <v>150616.6983822196</v>
+        <v>197929.2600764891</v>
       </c>
       <c r="AE5" t="n">
-        <v>206080.4114662311</v>
+        <v>270815.545659207</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.421023406536272e-06</v>
+        <v>4.41057886148322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>186412.3862316267</v>
+        <v>244969.2900735772</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5584573192419</v>
+        <v>178.5717071545779</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.1088176042795</v>
+        <v>244.3296877564985</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.5377304505272</v>
+        <v>221.0112052759596</v>
       </c>
       <c r="AD2" t="n">
-        <v>134558.4573192419</v>
+        <v>178571.7071545779</v>
       </c>
       <c r="AE2" t="n">
-        <v>184108.8176042795</v>
+        <v>244329.6877564985</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.534609565872356e-06</v>
+        <v>4.967018096722335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>166537.7304505272</v>
+        <v>221011.2052759596</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.8381927543134</v>
+        <v>174.6808503890572</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.0185875000578</v>
+        <v>239.00604587743</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.933304763268</v>
+        <v>216.1956443060494</v>
       </c>
       <c r="AD3" t="n">
-        <v>130838.1927543134</v>
+        <v>174680.8503890572</v>
       </c>
       <c r="AE3" t="n">
-        <v>179018.5875000578</v>
+        <v>239006.04587743</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.611620281028644e-06</v>
+        <v>5.11793428554022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>161933.304763268</v>
+        <v>216195.6443060494</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.6800776365126</v>
+        <v>355.739430866033</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.5118414209192</v>
+        <v>486.7383834269621</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.3373779590088</v>
+        <v>440.2847552543037</v>
       </c>
       <c r="AD2" t="n">
-        <v>284680.0776365126</v>
+        <v>355739.430866033</v>
       </c>
       <c r="AE2" t="n">
-        <v>389511.8414209192</v>
+        <v>486738.3834269621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570592604603118e-06</v>
+        <v>2.702175060527235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>352337.3779590088</v>
+        <v>440284.7552543037</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.3759831487159</v>
+        <v>275.3448812342435</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.3186777448298</v>
+        <v>376.7390138635355</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.3247548162994</v>
+        <v>340.7835711369257</v>
       </c>
       <c r="AD3" t="n">
-        <v>214375.9831487159</v>
+        <v>275344.8812342435</v>
       </c>
       <c r="AE3" t="n">
-        <v>293318.6777448297</v>
+        <v>376739.0138635355</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.91627899833345e-06</v>
+        <v>3.296922004555886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.84201388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>265324.7548162994</v>
+        <v>340783.5711369257</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.3598331170167</v>
+        <v>254.1531142210759</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.2458952732271</v>
+        <v>347.7435033211777</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.6904975489987</v>
+        <v>314.5553514253804</v>
       </c>
       <c r="AD4" t="n">
-        <v>203359.8331170167</v>
+        <v>254153.1142210759</v>
       </c>
       <c r="AE4" t="n">
-        <v>278245.8952732271</v>
+        <v>347743.5033211777</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.040329826597194e-06</v>
+        <v>3.51034912333233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>251690.4975489987</v>
+        <v>314555.3514253804</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.743386881441</v>
+        <v>236.6219193315207</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.1422963509674</v>
+        <v>323.7565490515672</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.8873122782582</v>
+        <v>292.8576784053522</v>
       </c>
       <c r="AD5" t="n">
-        <v>185743.386881441</v>
+        <v>236621.9193315207</v>
       </c>
       <c r="AE5" t="n">
-        <v>254142.2963509674</v>
+        <v>323756.5490515672</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.118124819399168e-06</v>
+        <v>3.644193946469333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.809027777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>229887.3122782582</v>
+        <v>292857.6784053522</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.0455475426146</v>
+        <v>232.9240799926943</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.0827494304296</v>
+        <v>318.6970021310294</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.3106414146962</v>
+        <v>288.2810075417902</v>
       </c>
       <c r="AD6" t="n">
-        <v>182045.5475426146</v>
+        <v>232924.0799926943</v>
       </c>
       <c r="AE6" t="n">
-        <v>249082.7494304296</v>
+        <v>318697.0021310294</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.150262215687402e-06</v>
+        <v>3.69948573283445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>225310.6414146962</v>
+        <v>288281.0075417903</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>179.003020052231</v>
+        <v>229.8815525023108</v>
       </c>
       <c r="AB7" t="n">
-        <v>244.9198290912493</v>
+        <v>314.5340817918491</v>
       </c>
       <c r="AC7" t="n">
-        <v>221.5450243499906</v>
+        <v>284.5153904770846</v>
       </c>
       <c r="AD7" t="n">
-        <v>179003.020052231</v>
+        <v>229881.5525023108</v>
       </c>
       <c r="AE7" t="n">
-        <v>244919.8290912493</v>
+        <v>314534.0817918491</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.170482692130856e-06</v>
+        <v>3.734274682557848e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.565972222222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>221545.0243499906</v>
+        <v>284515.3904770846</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>175.5729611873045</v>
+        <v>226.280901436792</v>
       </c>
       <c r="AB8" t="n">
-        <v>240.2266712287419</v>
+        <v>309.6075121544949</v>
       </c>
       <c r="AC8" t="n">
-        <v>217.299774886991</v>
+        <v>280.059005731434</v>
       </c>
       <c r="AD8" t="n">
-        <v>175572.9611873045</v>
+        <v>226280.901436792</v>
       </c>
       <c r="AE8" t="n">
-        <v>240226.6712287419</v>
+        <v>309607.5121544949</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.191971435144136e-06</v>
+        <v>3.771245661080466e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>217299.774886991</v>
+        <v>280059.005731434</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>173.5130895748906</v>
+        <v>224.2210298243782</v>
       </c>
       <c r="AB9" t="n">
-        <v>237.4082640135168</v>
+        <v>306.7891049392697</v>
       </c>
       <c r="AC9" t="n">
-        <v>214.7503525007267</v>
+        <v>277.5095833451697</v>
       </c>
       <c r="AD9" t="n">
-        <v>173513.0895748906</v>
+        <v>224221.0298243782</v>
       </c>
       <c r="AE9" t="n">
-        <v>237408.2640135168</v>
+        <v>306789.1049392698</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.199293879868037e-06</v>
+        <v>3.783843789619353e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>214750.3525007267</v>
+        <v>277509.5833451697</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>173.7774127520991</v>
+        <v>224.4853530015866</v>
       </c>
       <c r="AB10" t="n">
-        <v>237.7699226456888</v>
+        <v>307.1507635714417</v>
       </c>
       <c r="AC10" t="n">
-        <v>215.0774949406353</v>
+        <v>277.8367257850783</v>
       </c>
       <c r="AD10" t="n">
-        <v>173777.412752099</v>
+        <v>224485.3530015866</v>
       </c>
       <c r="AE10" t="n">
-        <v>237769.9226456888</v>
+        <v>307150.7635714417</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.199174232078431e-06</v>
+        <v>3.783637937845842e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>215077.4949406353</v>
+        <v>277836.7257850783</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5222896631459</v>
+        <v>168.4390748771595</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7451343696333</v>
+        <v>230.4657732543546</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.3540197912533</v>
+        <v>208.4704433157698</v>
       </c>
       <c r="AD2" t="n">
-        <v>125522.2896631459</v>
+        <v>168439.0748771595</v>
       </c>
       <c r="AE2" t="n">
-        <v>171745.1343696333</v>
+        <v>230465.7732543546</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.645593276670633e-06</v>
+        <v>5.303516014357199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.392361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>155354.0197912533</v>
+        <v>208470.4433157697</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.8834272701281</v>
+        <v>168.8002124841417</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.2392587757729</v>
+        <v>230.9598976604943</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.800985657579</v>
+        <v>208.9174091820955</v>
       </c>
       <c r="AD3" t="n">
-        <v>125883.4272701281</v>
+        <v>168800.2124841417</v>
       </c>
       <c r="AE3" t="n">
-        <v>172239.2587757729</v>
+        <v>230959.8976604943</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.645049157509152e-06</v>
+        <v>5.302425240234027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.401041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>155800.985657579</v>
+        <v>208917.4091820955</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.5837074737187</v>
+        <v>283.4692179396112</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.2853364993059</v>
+        <v>387.8550897642589</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.9584552615814</v>
+        <v>350.8387443551947</v>
       </c>
       <c r="AD2" t="n">
-        <v>224583.7074737187</v>
+        <v>283469.2179396112</v>
       </c>
       <c r="AE2" t="n">
-        <v>307285.3364993058</v>
+        <v>387855.0897642589</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819651552266539e-06</v>
+        <v>3.222738111729737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>277958.4552615815</v>
+        <v>350838.7443551947</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.6947837889275</v>
+        <v>238.6807911644811</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.5487719231162</v>
+        <v>326.5735883244368</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.777801409839</v>
+        <v>295.4058634037596</v>
       </c>
       <c r="AD3" t="n">
-        <v>189694.7837889275</v>
+        <v>238680.7911644811</v>
       </c>
       <c r="AE3" t="n">
-        <v>259548.7719231162</v>
+        <v>326573.5883244368</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117296013332916e-06</v>
+        <v>3.749888569315455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.19965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>234777.801409839</v>
+        <v>295405.8634037595</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.1660172018047</v>
+        <v>220.2372759233788</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.1968960471371</v>
+        <v>301.3383571011069</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.845472985874</v>
+        <v>272.5790472305068</v>
       </c>
       <c r="AD4" t="n">
-        <v>171166.0172018047</v>
+        <v>220237.2759233788</v>
       </c>
       <c r="AE4" t="n">
-        <v>234196.8960471371</v>
+        <v>301338.3571011069</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.226735831473252e-06</v>
+        <v>3.9437146193756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>211845.472985874</v>
+        <v>272579.0472305068</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.9622581910177</v>
+        <v>214.8629247119996</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.0768833949368</v>
+        <v>293.9849326740597</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.4049843481969</v>
+        <v>265.9274233101786</v>
       </c>
       <c r="AD5" t="n">
-        <v>165962.2581910177</v>
+        <v>214862.9247119996</v>
       </c>
       <c r="AE5" t="n">
-        <v>227076.8833949368</v>
+        <v>293984.9326740598</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.281070126271728e-06</v>
+        <v>4.039944692876704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.470486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>205404.9843481969</v>
+        <v>265927.4233101786</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.7289755368787</v>
+        <v>209.6296420578606</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.9164751914112</v>
+        <v>286.8245244705341</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.9279554539174</v>
+        <v>259.4503944158992</v>
       </c>
       <c r="AD6" t="n">
-        <v>160728.9755368787</v>
+        <v>209629.6420578606</v>
       </c>
       <c r="AE6" t="n">
-        <v>219916.4751914112</v>
+        <v>286824.5244705341</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.32351257449801e-06</v>
+        <v>4.115113422452199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>198927.9554539174</v>
+        <v>259450.3944158992</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.9806415087943</v>
+        <v>209.8813080297762</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.260815676905</v>
+        <v>287.168864956028</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.2394325667607</v>
+        <v>259.7618715287425</v>
       </c>
       <c r="AD7" t="n">
-        <v>160980.6415087943</v>
+        <v>209881.3080297762</v>
       </c>
       <c r="AE7" t="n">
-        <v>220260.815676905</v>
+        <v>287168.8649560279</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.319532040080539e-06</v>
+        <v>4.108063600217686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.314236111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>199239.4325667607</v>
+        <v>259761.8715287425</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.7960074883697</v>
+        <v>313.8944985058984</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.2548941350522</v>
+        <v>429.4843009036991</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.1133744142114</v>
+        <v>388.4949220104514</v>
       </c>
       <c r="AD2" t="n">
-        <v>253796.0074883697</v>
+        <v>313894.4985058984</v>
       </c>
       <c r="AE2" t="n">
-        <v>347254.8941350522</v>
+        <v>429484.3009036991</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.689609742413881e-06</v>
+        <v>2.946531855391425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>314113.3744142114</v>
+        <v>388494.9220104514</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.21682953935</v>
+        <v>252.3131288630491</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.6819873525052</v>
+        <v>345.2259541799017</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.2758468052715</v>
+        <v>312.2780736407447</v>
       </c>
       <c r="AD3" t="n">
-        <v>202216.82953935</v>
+        <v>252313.1288630491</v>
       </c>
       <c r="AE3" t="n">
-        <v>276681.9873525053</v>
+        <v>345225.9541799017</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.010688001478666e-06</v>
+        <v>3.506464302902293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>250275.8468052715</v>
+        <v>312278.0736407447</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.2301240035976</v>
+        <v>242.0725924574074</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.3352950872852</v>
+        <v>331.2144004891285</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.5390844685117</v>
+        <v>299.6037629688753</v>
       </c>
       <c r="AD4" t="n">
-        <v>182230.1240035976</v>
+        <v>242072.5924574074</v>
       </c>
       <c r="AE4" t="n">
-        <v>249335.2950872852</v>
+        <v>331214.4004891285</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.129398229359437e-06</v>
+        <v>3.713484574643709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.939236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>225539.0844685117</v>
+        <v>299603.7629688754</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.0287911719759</v>
+        <v>227.0397496411034</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.2186020404543</v>
+        <v>310.6458017456532</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.1015986177266</v>
+        <v>280.998202421261</v>
       </c>
       <c r="AD5" t="n">
-        <v>177028.7911719758</v>
+        <v>227039.7496411033</v>
       </c>
       <c r="AE5" t="n">
-        <v>242218.6020404543</v>
+        <v>310645.8017456532</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.183293160333643e-06</v>
+        <v>3.807472628200233e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>219101.5986177266</v>
+        <v>280998.202421261</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.2932555158071</v>
+        <v>222.1336217843424</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.739233238599</v>
+        <v>303.933021168951</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.240611680467</v>
+        <v>274.9260802013504</v>
       </c>
       <c r="AD6" t="n">
-        <v>172293.2555158071</v>
+        <v>222133.6217843424</v>
       </c>
       <c r="AE6" t="n">
-        <v>235739.233238599</v>
+        <v>303933.0211689509</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.227462140399343e-06</v>
+        <v>3.884499472634616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.496527777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>213240.611680467</v>
+        <v>274926.0802013504</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>167.4828295751748</v>
+        <v>217.3231958437102</v>
       </c>
       <c r="AB7" t="n">
-        <v>229.1573962456146</v>
+        <v>297.3511841759665</v>
       </c>
       <c r="AC7" t="n">
-        <v>207.2869359724247</v>
+        <v>268.9724044933081</v>
       </c>
       <c r="AD7" t="n">
-        <v>167482.8295751748</v>
+        <v>217323.1958437102</v>
       </c>
       <c r="AE7" t="n">
-        <v>229157.3962456146</v>
+        <v>297351.1841759665</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.263538349283026e-06</v>
+        <v>3.947413230781904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.348958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>207286.9359724247</v>
+        <v>268972.4044933081</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.4184049354748</v>
+        <v>217.2587712040101</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.0692476113624</v>
+        <v>297.2630355417144</v>
       </c>
       <c r="AC8" t="n">
-        <v>207.2072001201082</v>
+        <v>268.8926686409915</v>
       </c>
       <c r="AD8" t="n">
-        <v>167418.4049354748</v>
+        <v>217258.7712040101</v>
       </c>
       <c r="AE8" t="n">
-        <v>229069.2476113624</v>
+        <v>297263.0355417144</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.254933685947931e-06</v>
+        <v>3.932407449277856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.383680555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>207207.2001201082</v>
+        <v>268892.6686409916</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.9229625839652</v>
+        <v>389.4516834656168</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.945537892852</v>
+        <v>532.8649747133304</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.8665251536216</v>
+        <v>482.0090894073786</v>
       </c>
       <c r="AD2" t="n">
-        <v>306922.9625839652</v>
+        <v>389451.6834656168</v>
       </c>
       <c r="AE2" t="n">
-        <v>419945.537892852</v>
+        <v>532864.9747133304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.461824459155059e-06</v>
+        <v>2.485004696132058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.97569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>379866.5251536216</v>
+        <v>482009.0894073786</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.5635295719162</v>
+        <v>300.4174893144231</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.4131458402733</v>
+        <v>411.0444623642394</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.2607333251021</v>
+        <v>371.8149557807218</v>
       </c>
       <c r="AD3" t="n">
-        <v>238563.5295719162</v>
+        <v>300417.4893144231</v>
       </c>
       <c r="AE3" t="n">
-        <v>326413.1458402733</v>
+        <v>411044.4623642394</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.815992967366114e-06</v>
+        <v>3.087067687084656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>295260.7333251021</v>
+        <v>371814.9557807218</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.0327169037895</v>
+        <v>265.6345921770184</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.8490057246839</v>
+        <v>363.452967987721</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.8999076345673</v>
+        <v>328.7655268324165</v>
       </c>
       <c r="AD4" t="n">
-        <v>214032.7169037896</v>
+        <v>265634.5921770184</v>
       </c>
       <c r="AE4" t="n">
-        <v>292849.0057246839</v>
+        <v>363452.967987721</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957961530346617e-06</v>
+        <v>3.328404834989258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.43402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>264899.9076345673</v>
+        <v>328765.5268324165</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.3756737138925</v>
+        <v>258.9775489871213</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.7405455442532</v>
+        <v>354.3445078072857</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.6607461099499</v>
+        <v>320.5263653077978</v>
       </c>
       <c r="AD5" t="n">
-        <v>207375.6737138925</v>
+        <v>258977.5489871213</v>
       </c>
       <c r="AE5" t="n">
-        <v>283740.5455442532</v>
+        <v>354344.5078072857</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.028192912596667e-06</v>
+        <v>3.447793530132652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.06944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>256660.7461099499</v>
+        <v>320526.3653077978</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.2741821128767</v>
+        <v>244.9613087321228</v>
       </c>
       <c r="AB6" t="n">
-        <v>264.4462626218501</v>
+        <v>335.1668695373598</v>
       </c>
       <c r="AC6" t="n">
-        <v>239.2078824699587</v>
+        <v>303.1790139184699</v>
       </c>
       <c r="AD6" t="n">
-        <v>193274.1821128767</v>
+        <v>244961.3087321228</v>
       </c>
       <c r="AE6" t="n">
-        <v>264446.2626218501</v>
+        <v>335166.8695373599</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.06332036777232e-06</v>
+        <v>3.507507875810739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>239207.8824699587</v>
+        <v>303179.0139184699</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.3559391930412</v>
+        <v>241.0430658122873</v>
       </c>
       <c r="AB7" t="n">
-        <v>259.0851497982562</v>
+        <v>329.8057567137659</v>
       </c>
       <c r="AC7" t="n">
-        <v>234.3584267298777</v>
+        <v>298.329558178389</v>
       </c>
       <c r="AD7" t="n">
-        <v>189355.9391930412</v>
+        <v>241043.0658122873</v>
       </c>
       <c r="AE7" t="n">
-        <v>259085.1497982562</v>
+        <v>329805.7567137659</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.095789147506012e-06</v>
+        <v>3.56270264944487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.748263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>234358.4267298777</v>
+        <v>298329.558178389</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>185.7769284106977</v>
+        <v>237.4640550299438</v>
       </c>
       <c r="AB8" t="n">
-        <v>254.1881893510442</v>
+        <v>324.9087962665539</v>
       </c>
       <c r="AC8" t="n">
-        <v>229.9288253148189</v>
+        <v>293.8999567633302</v>
       </c>
       <c r="AD8" t="n">
-        <v>185776.9284106977</v>
+        <v>237464.0550299438</v>
       </c>
       <c r="AE8" t="n">
-        <v>254188.1893510442</v>
+        <v>324908.7962665539</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.119011383445978e-06</v>
+        <v>3.602178911457107e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>229928.8253148189</v>
+        <v>293899.9567633302</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>182.5311274351383</v>
+        <v>234.2182540543844</v>
       </c>
       <c r="AB9" t="n">
-        <v>249.7471412616533</v>
+        <v>320.467748177163</v>
       </c>
       <c r="AC9" t="n">
-        <v>225.9116246220279</v>
+        <v>289.8827560705392</v>
       </c>
       <c r="AD9" t="n">
-        <v>182531.1274351383</v>
+        <v>234218.2540543844</v>
       </c>
       <c r="AE9" t="n">
-        <v>249747.1412616533</v>
+        <v>320467.748177163</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.141457192044486e-06</v>
+        <v>3.640335298447659e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.539930555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>225911.6246220279</v>
+        <v>289882.7560705392</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>179.8891650196736</v>
+        <v>231.4056994383275</v>
       </c>
       <c r="AB10" t="n">
-        <v>246.1322917296606</v>
+        <v>316.6194868703235</v>
       </c>
       <c r="AC10" t="n">
-        <v>222.6417712558943</v>
+        <v>286.4017674217544</v>
       </c>
       <c r="AD10" t="n">
-        <v>179889.1650196736</v>
+        <v>231405.6994383275</v>
       </c>
       <c r="AE10" t="n">
-        <v>246132.2917296606</v>
+        <v>316619.4868703235</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.152515399634946e-06</v>
+        <v>3.659133518453487e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.487847222222221</v>
       </c>
       <c r="AH10" t="n">
-        <v>222641.7712558943</v>
+        <v>286401.7674217544</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>179.8909558389449</v>
+        <v>231.4074902575988</v>
       </c>
       <c r="AB11" t="n">
-        <v>246.1347420075928</v>
+        <v>316.6219371482558</v>
       </c>
       <c r="AC11" t="n">
-        <v>222.6439876827397</v>
+        <v>286.4039838485998</v>
       </c>
       <c r="AD11" t="n">
-        <v>179890.9558389449</v>
+        <v>231407.4902575988</v>
       </c>
       <c r="AE11" t="n">
-        <v>246134.7420075928</v>
+        <v>316621.9371482558</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.1514095788759e-06</v>
+        <v>3.657253696452904e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.496527777777779</v>
       </c>
       <c r="AH11" t="n">
-        <v>222643.9876827397</v>
+        <v>286403.9838485998</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.7062148869405</v>
+        <v>264.1845008532748</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.8245624427789</v>
+        <v>361.4688890650608</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.8321831500896</v>
+        <v>326.9708056174628</v>
       </c>
       <c r="AD2" t="n">
-        <v>206706.2148869405</v>
+        <v>264184.5008532748</v>
       </c>
       <c r="AE2" t="n">
-        <v>282824.5624427788</v>
+        <v>361468.8890650608</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.96154669293072e-06</v>
+        <v>3.53713286765065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.26736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>255832.1831500896</v>
+        <v>326970.8056174628</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.1499094380287</v>
+        <v>215.1906412437981</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.7018802265716</v>
+        <v>294.4333288906992</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.8748937629184</v>
+        <v>266.3330252212302</v>
       </c>
       <c r="AD3" t="n">
-        <v>167149.9094380288</v>
+        <v>215190.6412437981</v>
       </c>
       <c r="AE3" t="n">
-        <v>228701.8802265716</v>
+        <v>294433.3288906992</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.238942276538404e-06</v>
+        <v>4.037342747770251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>206874.8937629184</v>
+        <v>266333.0252212302</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.2522507459097</v>
+        <v>207.1223903510869</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.8959551839086</v>
+        <v>283.3939920731893</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.1002710401126</v>
+        <v>256.3472672157733</v>
       </c>
       <c r="AD4" t="n">
-        <v>159252.2507459097</v>
+        <v>207122.3903510869</v>
       </c>
       <c r="AE4" t="n">
-        <v>217895.9551839086</v>
+        <v>283393.9920731893</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.341902923968491e-06</v>
+        <v>4.223005159688381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.435763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>197100.2710401126</v>
+        <v>256347.2672157733</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.3777614807566</v>
+        <v>202.2479010859337</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.2264639240403</v>
+        <v>276.724500813321</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.0673066653943</v>
+        <v>250.314302841055</v>
       </c>
       <c r="AD5" t="n">
-        <v>154377.7614807566</v>
+        <v>202247.9010859337</v>
       </c>
       <c r="AE5" t="n">
-        <v>211226.4639240403</v>
+        <v>276724.500813321</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.384868949397907e-06</v>
+        <v>4.300483071015404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.262152777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>191067.3066653943</v>
+        <v>250314.302841055</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.2777007262022</v>
+        <v>202.1478403313793</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.0895563852901</v>
+        <v>276.5875932745709</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.9434653899914</v>
+        <v>250.1904615656522</v>
       </c>
       <c r="AD6" t="n">
-        <v>154277.7007262022</v>
+        <v>202147.8403313794</v>
       </c>
       <c r="AE6" t="n">
-        <v>211089.5563852901</v>
+        <v>276587.5932745709</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.384181696621488e-06</v>
+        <v>4.299243791628063e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>190943.4653899914</v>
+        <v>250190.4615656522</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.00660443701</v>
+        <v>217.17995558837</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9787804695501</v>
+        <v>297.1551965392961</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6481740528847</v>
+        <v>268.7951216416111</v>
       </c>
       <c r="AD2" t="n">
-        <v>171006.60443701</v>
+        <v>217179.95558837</v>
       </c>
       <c r="AE2" t="n">
-        <v>233978.7804695501</v>
+        <v>297155.1965392961</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210905645050959e-06</v>
+        <v>4.124843233731489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>211648.1740528847</v>
+        <v>268795.1216416111</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.2924392186457</v>
+        <v>193.3804495154341</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.5320134226678</v>
+        <v>264.5916623702161</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.2980809136229</v>
+        <v>239.3394054704104</v>
       </c>
       <c r="AD3" t="n">
-        <v>147292.4392186457</v>
+        <v>193380.4495154341</v>
       </c>
       <c r="AE3" t="n">
-        <v>201532.0134226678</v>
+        <v>264591.6623702161</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.44603559960288e-06</v>
+        <v>4.563520571342941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.409722222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>182298.0809136229</v>
+        <v>239339.4054704104</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.1984916375526</v>
+        <v>180.2054631440081</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.9304937299987</v>
+        <v>246.5650647774632</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.2311623986382</v>
+        <v>223.0332410514156</v>
       </c>
       <c r="AD4" t="n">
-        <v>143198.4916375527</v>
+        <v>180205.4631440082</v>
       </c>
       <c r="AE4" t="n">
-        <v>195930.4937299987</v>
+        <v>246565.0647774632</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.496466043170511e-06</v>
+        <v>4.657607659315085e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>177231.1623986382</v>
+        <v>223033.2410514156</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.0498299638977</v>
+        <v>188.8839431963606</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.0953323864997</v>
+        <v>258.4393440526043</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.2848304886244</v>
+        <v>233.7742557781967</v>
       </c>
       <c r="AD2" t="n">
-        <v>144049.8299638977</v>
+        <v>188883.9431963606</v>
       </c>
       <c r="AE2" t="n">
-        <v>197095.3323864997</v>
+        <v>258439.3440526043</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.415442930970905e-06</v>
+        <v>4.644986329595261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>178284.8304886244</v>
+        <v>233774.2557781967</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.3301193861194</v>
+        <v>179.9936404179901</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.1646396875085</v>
+        <v>246.2752395787663</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.4927863559887</v>
+        <v>222.77107636291</v>
       </c>
       <c r="AD3" t="n">
-        <v>135330.1193861194</v>
+        <v>179993.6404179901</v>
       </c>
       <c r="AE3" t="n">
-        <v>185164.6396875085</v>
+        <v>246275.2395787663</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.570493165329374e-06</v>
+        <v>4.943153680088669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.262152777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>167492.7863559887</v>
+        <v>222771.07636291</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.764284289235</v>
+        <v>161.7746180397476</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.8667773917834</v>
+        <v>221.3471693943271</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.2275621460234</v>
+        <v>200.2221062100995</v>
       </c>
       <c r="AD2" t="n">
-        <v>119764.284289235</v>
+        <v>161774.6180397476</v>
       </c>
       <c r="AE2" t="n">
-        <v>163866.7773917835</v>
+        <v>221347.1693943271</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.659244323500965e-06</v>
+        <v>5.484955536990815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>148227.5621460234</v>
+        <v>200222.1062100995</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.0716906831914</v>
+        <v>303.4477951582982</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.9496548756341</v>
+        <v>415.1906605074878</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.0779685156874</v>
+        <v>375.5654465924043</v>
       </c>
       <c r="AD2" t="n">
-        <v>244071.6906831914</v>
+        <v>303447.7951582982</v>
       </c>
       <c r="AE2" t="n">
-        <v>333949.6548756341</v>
+        <v>415190.6605074878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.752760923967937e-06</v>
+        <v>3.079531800891833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.19618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>302077.9685156874</v>
+        <v>375565.4465924043</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.2679382765175</v>
+        <v>245.7338167814331</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.542451880142</v>
+        <v>336.2238491310757</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.9131371744782</v>
+        <v>304.1351168632419</v>
       </c>
       <c r="AD3" t="n">
-        <v>196267.9382765175</v>
+        <v>245733.8167814332</v>
       </c>
       <c r="AE3" t="n">
-        <v>268542.451880142</v>
+        <v>336223.8491310757</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.057693809764227e-06</v>
+        <v>3.615286852311823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>242913.1371744782</v>
+        <v>304135.1168632419</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.7908750505406</v>
+        <v>226.3420049014769</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.8930747069884</v>
+        <v>309.6911166105713</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.8071391560861</v>
+        <v>280.1346310955621</v>
       </c>
       <c r="AD4" t="n">
-        <v>176790.8750505406</v>
+        <v>226342.0049014769</v>
       </c>
       <c r="AE4" t="n">
-        <v>241893.0747069884</v>
+        <v>309691.1166105713</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.177342915607111e-06</v>
+        <v>3.825505611386678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>218807.1391560861</v>
+        <v>280134.6310955621</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.6281314979968</v>
+        <v>221.1792613489331</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.8291812142307</v>
+        <v>302.6272231178136</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.4174137440382</v>
+        <v>273.7449056835142</v>
       </c>
       <c r="AD5" t="n">
-        <v>171628.1314979968</v>
+        <v>221179.2613489331</v>
       </c>
       <c r="AE5" t="n">
-        <v>234829.1812142307</v>
+        <v>302627.2231178136</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.232637543533679e-06</v>
+        <v>3.922656091403576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.574652777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>212417.4137440382</v>
+        <v>273744.9056835142</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.6117555344468</v>
+        <v>215.9922931847909</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.9655543140166</v>
+        <v>295.5301844427527</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.2088417620175</v>
+        <v>267.3251984188424</v>
       </c>
       <c r="AD6" t="n">
-        <v>166611.7555344469</v>
+        <v>215992.2931847909</v>
       </c>
       <c r="AE6" t="n">
-        <v>227965.5543140166</v>
+        <v>295530.1844427527</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.275524116039503e-06</v>
+        <v>3.998006107516416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.392361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>206208.8417620175</v>
+        <v>267325.1984188424</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.3942681057094</v>
+        <v>212.7748057560535</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.5632460684929</v>
+        <v>291.1278761972289</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.2266836367668</v>
+        <v>263.3430402935917</v>
       </c>
       <c r="AD7" t="n">
-        <v>163394.2681057094</v>
+        <v>212774.8057560535</v>
       </c>
       <c r="AE7" t="n">
-        <v>223563.2460684929</v>
+        <v>291127.876197229</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.296745829874188e-06</v>
+        <v>4.035291821574548e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>202226.6836367667</v>
+        <v>263343.0402935917</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>163.7429308677539</v>
+        <v>213.123468518098</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.0403018414374</v>
+        <v>291.6049319701735</v>
       </c>
       <c r="AC8" t="n">
-        <v>202.6582098762935</v>
+        <v>263.7745665331185</v>
       </c>
       <c r="AD8" t="n">
-        <v>163742.9308677539</v>
+        <v>213123.468518098</v>
       </c>
       <c r="AE8" t="n">
-        <v>224040.3018414374</v>
+        <v>291604.9319701735</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.29679506818935e-06</v>
+        <v>4.035378331351945e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>202658.2098762935</v>
+        <v>263774.5665331185</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.4825404794222</v>
+        <v>367.2878878863312</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.2922476536141</v>
+        <v>502.5394918041004</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.7071629652858</v>
+        <v>454.5778280249228</v>
       </c>
       <c r="AD2" t="n">
-        <v>295482.5404794222</v>
+        <v>367287.8878863312</v>
       </c>
       <c r="AE2" t="n">
-        <v>404292.2476536141</v>
+        <v>502539.4918041003</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.515618921125376e-06</v>
+        <v>2.591539450921125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>365707.1629652858</v>
+        <v>454577.8280249228</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.5063587972767</v>
+        <v>282.7959821679084</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.7572134460152</v>
+        <v>386.9339388803493</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.5263495663627</v>
+        <v>350.0055068188019</v>
       </c>
       <c r="AD3" t="n">
-        <v>231506.3587972767</v>
+        <v>282795.9821679085</v>
       </c>
       <c r="AE3" t="n">
-        <v>316757.2134460151</v>
+        <v>386933.9388803493</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.865568749030088e-06</v>
+        <v>3.189914657391048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>286526.3495663627</v>
+        <v>350005.5068188019</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.8482264608834</v>
+        <v>260.0525089769432</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.7553571771273</v>
+        <v>355.8153154892477</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.4832669483891</v>
+        <v>321.8568011688849</v>
       </c>
       <c r="AD4" t="n">
-        <v>208848.2264608834</v>
+        <v>260052.5089769432</v>
       </c>
       <c r="AE4" t="n">
-        <v>285755.3571771273</v>
+        <v>355815.3154892477</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.99771033546011e-06</v>
+        <v>3.415862044011445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>258483.2669483891</v>
+        <v>321856.801168885</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.8665039502514</v>
+        <v>252.2432628756007</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.1519711404839</v>
+        <v>345.130360453605</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.2279935440059</v>
+        <v>312.191603245519</v>
       </c>
       <c r="AD5" t="n">
-        <v>190866.5039502514</v>
+        <v>252243.2628756007</v>
       </c>
       <c r="AE5" t="n">
-        <v>261151.9711404839</v>
+        <v>345130.360453605</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.076734325477776e-06</v>
+        <v>3.550984260318903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>236227.9935440059</v>
+        <v>312191.603245519</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.7563028294443</v>
+        <v>239.0458366915215</v>
       </c>
       <c r="AB6" t="n">
-        <v>256.8964567546084</v>
+        <v>327.0730597192053</v>
       </c>
       <c r="AC6" t="n">
-        <v>232.3786194784651</v>
+        <v>295.857665949624</v>
       </c>
       <c r="AD6" t="n">
-        <v>187756.3028294444</v>
+        <v>239045.8366915215</v>
       </c>
       <c r="AE6" t="n">
-        <v>256896.4567546084</v>
+        <v>327073.0597192053</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.106294184847939e-06</v>
+        <v>3.601528325620342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.774305555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>232378.6194784651</v>
+        <v>295857.665949624</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>183.7385937063332</v>
+        <v>235.0281275684103</v>
       </c>
       <c r="AB7" t="n">
-        <v>251.3992498835535</v>
+        <v>321.5758528481504</v>
       </c>
       <c r="AC7" t="n">
-        <v>227.4060583158036</v>
+        <v>290.8851047869626</v>
       </c>
       <c r="AD7" t="n">
-        <v>183738.5937063332</v>
+        <v>235028.1275684103</v>
       </c>
       <c r="AE7" t="n">
-        <v>251399.2498835535</v>
+        <v>321575.8528481504</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.139365167160946e-06</v>
+        <v>3.658076019866093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.626736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>227406.0583158036</v>
+        <v>290885.1047869626</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>180.0609982302327</v>
+        <v>231.3505320923099</v>
       </c>
       <c r="AB8" t="n">
-        <v>246.3674015090937</v>
+        <v>316.5440044736905</v>
       </c>
       <c r="AC8" t="n">
-        <v>222.854442487957</v>
+        <v>286.333488959116</v>
       </c>
       <c r="AD8" t="n">
-        <v>180060.9982302327</v>
+        <v>231350.5320923099</v>
       </c>
       <c r="AE8" t="n">
-        <v>246367.4015090937</v>
+        <v>316544.0044736905</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.163492275491167e-06</v>
+        <v>3.699330686328022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.522569444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>222854.442487957</v>
+        <v>286333.488959116</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>177.9576555052392</v>
+        <v>229.0765971667242</v>
       </c>
       <c r="AB9" t="n">
-        <v>243.4895151998269</v>
+        <v>313.4327063895769</v>
       </c>
       <c r="AC9" t="n">
-        <v>220.251217608907</v>
+        <v>283.5191287974149</v>
       </c>
       <c r="AD9" t="n">
-        <v>177957.6555052392</v>
+        <v>229076.5971667242</v>
       </c>
       <c r="AE9" t="n">
-        <v>243489.5151998269</v>
+        <v>313432.706389577</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.17046707376952e-06</v>
+        <v>3.711256814095777e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.487847222222221</v>
       </c>
       <c r="AH9" t="n">
-        <v>220251.217608907</v>
+        <v>283519.1287974149</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>176.3423873845014</v>
+        <v>227.4613290459864</v>
       </c>
       <c r="AB10" t="n">
-        <v>241.2794340964345</v>
+        <v>311.2226252861845</v>
       </c>
       <c r="AC10" t="n">
-        <v>218.2520635441533</v>
+        <v>281.5199747326612</v>
       </c>
       <c r="AD10" t="n">
-        <v>176342.3873845015</v>
+        <v>227461.3290459864</v>
       </c>
       <c r="AE10" t="n">
-        <v>241279.4340964345</v>
+        <v>311222.6252861845</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.180763204561374e-06</v>
+        <v>3.728862050324368e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>218252.0635441533</v>
+        <v>281519.9747326612</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.840048136585</v>
+        <v>161.4444391243001</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.3386849470785</v>
+        <v>220.8954040357465</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.5589929100768</v>
+        <v>199.813456703285</v>
       </c>
       <c r="AD2" t="n">
-        <v>120840.048136585</v>
+        <v>161444.4391243001</v>
       </c>
       <c r="AE2" t="n">
-        <v>165338.6849470785</v>
+        <v>220895.4040357464</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613001619353239e-06</v>
+        <v>5.600865993895538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>149558.9929100768</v>
+        <v>199813.456703285</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.8077495636453</v>
+        <v>235.9918725595493</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.0208955109263</v>
+        <v>322.8944912624545</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.5410065359304</v>
+        <v>292.0778942017265</v>
       </c>
       <c r="AD2" t="n">
-        <v>179807.7495636453</v>
+        <v>235991.8725595493</v>
       </c>
       <c r="AE2" t="n">
-        <v>246020.8955109263</v>
+        <v>322894.4912624545</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119160382431958e-06</v>
+        <v>3.904410035696132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>222541.0065359304</v>
+        <v>292077.8942017265</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.2389724839955</v>
+        <v>201.1301923593918</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.0365666957334</v>
+        <v>275.1952024238382</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.8955329620345</v>
+        <v>248.9309585434802</v>
       </c>
       <c r="AD3" t="n">
-        <v>154238.9724839955</v>
+        <v>201130.1923593918</v>
       </c>
       <c r="AE3" t="n">
-        <v>211036.5666957334</v>
+        <v>275195.2024238382</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.372627714104593e-06</v>
+        <v>4.371406494155798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>190895.5329620345</v>
+        <v>248930.9585434803</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.3820180733999</v>
+        <v>194.102645748204</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.6545791636825</v>
+        <v>265.5798031169405</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.4089491523374</v>
+        <v>240.2332394511321</v>
       </c>
       <c r="AD4" t="n">
-        <v>147382.0180733999</v>
+        <v>194102.645748204</v>
       </c>
       <c r="AE4" t="n">
-        <v>201654.5791636825</v>
+        <v>265579.8031169405</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451272871133212e-06</v>
+        <v>4.51630489019369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.253472222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>182408.9491523374</v>
+        <v>240233.2394511321</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.2536930377615</v>
+        <v>184.7667584466297</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.4789991886212</v>
+        <v>252.8060302406535</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.2501262836678</v>
+        <v>228.678577530051</v>
       </c>
       <c r="AD5" t="n">
-        <v>147253.6930377615</v>
+        <v>184766.7584466297</v>
       </c>
       <c r="AE5" t="n">
-        <v>201478.9991886212</v>
+        <v>252806.0302406535</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.461802438668938e-06</v>
+        <v>4.535704908002086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.210069444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>182250.1262836678</v>
+        <v>228678.577530051</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.6194416955943</v>
+        <v>273.9020271410113</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.0200325861875</v>
+        <v>374.7648372389451</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.863734739465</v>
+        <v>338.9978071586119</v>
       </c>
       <c r="AD2" t="n">
-        <v>215619.4416955943</v>
+        <v>273902.0271410113</v>
       </c>
       <c r="AE2" t="n">
-        <v>295020.0325861875</v>
+        <v>374764.8372389451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.888357247548687e-06</v>
+        <v>3.373412413680693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>266863.734739465</v>
+        <v>338997.8071586119</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.2616545186135</v>
+        <v>231.7452243771041</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.7466806458437</v>
+        <v>317.0840398703405</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.8157693702539</v>
+        <v>286.8219841354542</v>
       </c>
       <c r="AD3" t="n">
-        <v>183261.6545186134</v>
+        <v>231745.2243771041</v>
       </c>
       <c r="AE3" t="n">
-        <v>250746.6806458437</v>
+        <v>317084.0398703404</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.176464612385101e-06</v>
+        <v>3.88809519538084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>226815.769370254</v>
+        <v>286821.9841354542</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.6478026078576</v>
+        <v>213.2166238123688</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.2783872763704</v>
+        <v>291.7323911535163</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.7781341749807</v>
+        <v>263.8898611908932</v>
       </c>
       <c r="AD4" t="n">
-        <v>164647.8026078576</v>
+        <v>213216.6238123688</v>
       </c>
       <c r="AE4" t="n">
-        <v>225278.3872763704</v>
+        <v>291732.3911535163</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.29313639777856e-06</v>
+        <v>4.096520825479965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.522569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>203778.1341749807</v>
+        <v>263889.8611908932</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.1317243011304</v>
+        <v>208.5299533050494</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.0992897017958</v>
+        <v>285.3198818040949</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.1887610005037</v>
+        <v>258.0893527337651</v>
       </c>
       <c r="AD5" t="n">
-        <v>160131.7243011304</v>
+        <v>208529.9533050495</v>
       </c>
       <c r="AE5" t="n">
-        <v>219099.2897017958</v>
+        <v>285319.8818040949</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.331976681661161e-06</v>
+        <v>4.165906158139096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.366319444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>198188.7610005037</v>
+        <v>258089.3527337651</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.4932642519745</v>
+        <v>205.8914932558935</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.4892322619003</v>
+        <v>281.7098243641993</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.9232423759231</v>
+        <v>254.8238341091846</v>
       </c>
       <c r="AD6" t="n">
-        <v>157493.2642519745</v>
+        <v>205891.4932558935</v>
       </c>
       <c r="AE6" t="n">
-        <v>215489.2322619003</v>
+        <v>281709.8243641993</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.349962953018712e-06</v>
+        <v>4.198037319312204e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>194923.2423759231</v>
+        <v>254823.8341091846</v>
       </c>
     </row>
   </sheetData>
